--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Angptl3-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Angptl3-Itgb3.xlsx
@@ -543,10 +543,10 @@
         <v>7.204333999999999</v>
       </c>
       <c r="I2">
-        <v>0.5723125574599714</v>
+        <v>0.4458169960283037</v>
       </c>
       <c r="J2">
-        <v>0.5723125574599716</v>
+        <v>0.4458169960283037</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.778439</v>
+        <v>2.598166333333333</v>
       </c>
       <c r="N2">
-        <v>11.335317</v>
+        <v>7.794499</v>
       </c>
       <c r="O2">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="P2">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="Q2">
-        <v>9.073712184875333</v>
+        <v>6.239352684296222</v>
       </c>
       <c r="R2">
-        <v>81.66340966387799</v>
+        <v>56.154174158666</v>
       </c>
       <c r="S2">
-        <v>0.2434029012179776</v>
+        <v>0.1545207647208587</v>
       </c>
       <c r="T2">
-        <v>0.2434029012179777</v>
+        <v>0.1545207647208587</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +605,10 @@
         <v>7.204333999999999</v>
       </c>
       <c r="I3">
-        <v>0.5723125574599714</v>
+        <v>0.4458169960283037</v>
       </c>
       <c r="J3">
-        <v>0.5723125574599716</v>
+        <v>0.4458169960283037</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.333403333333334</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N3">
         <v>13.00021</v>
       </c>
       <c r="O3">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="P3">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="Q3">
         <v>10.40642832334889</v>
       </c>
       <c r="R3">
-        <v>93.65785491014</v>
+        <v>93.65785491013999</v>
       </c>
       <c r="S3">
-        <v>0.2791530956252009</v>
+        <v>0.2577205270963219</v>
       </c>
       <c r="T3">
-        <v>0.279153095625201</v>
+        <v>0.2577205270963219</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,10 +667,10 @@
         <v>7.204333999999999</v>
       </c>
       <c r="I4">
-        <v>0.5723125574599714</v>
+        <v>0.4458169960283037</v>
       </c>
       <c r="J4">
-        <v>0.5723125574599716</v>
+        <v>0.4458169960283037</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4814053333333333</v>
+        <v>0.4692043333333333</v>
       </c>
       <c r="N4">
-        <v>1.444216</v>
+        <v>1.407613</v>
       </c>
       <c r="O4">
-        <v>0.0541864822020464</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="P4">
-        <v>0.05418648220204641</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="Q4">
-        <v>1.156068270238222</v>
+        <v>1.126768243860222</v>
       </c>
       <c r="R4">
-        <v>10.404614432144</v>
+        <v>10.140914194742</v>
       </c>
       <c r="S4">
-        <v>0.0310116042088124</v>
+        <v>0.02790499263532167</v>
       </c>
       <c r="T4">
-        <v>0.03101160420881241</v>
+        <v>0.02790499263532166</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,40 +729,40 @@
         <v>7.204333999999999</v>
       </c>
       <c r="I5">
-        <v>0.5723125574599714</v>
+        <v>0.4458169960283037</v>
       </c>
       <c r="J5">
-        <v>0.5723125574599716</v>
+        <v>0.4458169960283037</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.2909853333333333</v>
+        <v>0.09534933333333333</v>
       </c>
       <c r="N5">
-        <v>0.872956</v>
+        <v>0.286048</v>
       </c>
       <c r="O5">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764605</v>
       </c>
       <c r="P5">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764604</v>
       </c>
       <c r="Q5">
-        <v>0.6987851768115555</v>
+        <v>0.2289761480035555</v>
       </c>
       <c r="R5">
-        <v>6.289066591303999</v>
+        <v>2.060785332032</v>
       </c>
       <c r="S5">
-        <v>0.01874495640798055</v>
+        <v>0.005670711575801369</v>
       </c>
       <c r="T5">
-        <v>0.01874495640798055</v>
+        <v>0.005670711575801367</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.8143563333333333</v>
+        <v>1.399743666666667</v>
       </c>
       <c r="H6">
-        <v>2.443069</v>
+        <v>4.199231</v>
       </c>
       <c r="I6">
-        <v>0.1940774910548533</v>
+        <v>0.2598558798146963</v>
       </c>
       <c r="J6">
-        <v>0.1940774910548533</v>
+        <v>0.2598558798146962</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.778439</v>
+        <v>2.598166333333333</v>
       </c>
       <c r="N6">
-        <v>11.335317</v>
+        <v>7.794499</v>
       </c>
       <c r="O6">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="P6">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="Q6">
-        <v>3.076995729763667</v>
+        <v>3.636766870029889</v>
       </c>
       <c r="R6">
-        <v>27.692961567873</v>
+        <v>32.730901830269</v>
       </c>
       <c r="S6">
-        <v>0.08254060437449229</v>
+        <v>0.09006639411214643</v>
       </c>
       <c r="T6">
-        <v>0.08254060437449229</v>
+        <v>0.0900663941121464</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.8143563333333333</v>
+        <v>1.399743666666667</v>
       </c>
       <c r="H7">
-        <v>2.443069</v>
+        <v>4.199231</v>
       </c>
       <c r="I7">
-        <v>0.1940774910548533</v>
+        <v>0.2598558798146963</v>
       </c>
       <c r="J7">
-        <v>0.1940774910548533</v>
+        <v>0.2598558798146962</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.333403333333334</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N7">
         <v>13.00021</v>
       </c>
       <c r="O7">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="P7">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="Q7">
-        <v>3.528934449387779</v>
+        <v>6.065653870945555</v>
       </c>
       <c r="R7">
-        <v>31.76041004449</v>
+        <v>54.59088483851</v>
       </c>
       <c r="S7">
-        <v>0.0946638890112485</v>
+        <v>0.1502190246481098</v>
       </c>
       <c r="T7">
-        <v>0.09466388901124852</v>
+        <v>0.1502190246481097</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.8143563333333333</v>
+        <v>1.399743666666667</v>
       </c>
       <c r="H8">
-        <v>2.443069</v>
+        <v>4.199231</v>
       </c>
       <c r="I8">
-        <v>0.1940774910548533</v>
+        <v>0.2598558798146963</v>
       </c>
       <c r="J8">
-        <v>0.1940774910548533</v>
+        <v>0.2598558798146962</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.4814053333333333</v>
+        <v>0.4692043333333333</v>
       </c>
       <c r="N8">
-        <v>1.444216</v>
+        <v>1.407613</v>
       </c>
       <c r="O8">
-        <v>0.0541864822020464</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="P8">
-        <v>0.05418648220204641</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="Q8">
-        <v>0.3920354821004444</v>
+        <v>0.656765793955889</v>
       </c>
       <c r="R8">
-        <v>3.528319338904</v>
+        <v>5.910892145603</v>
       </c>
       <c r="S8">
-        <v>0.01051637651486162</v>
+        <v>0.016265141250949</v>
       </c>
       <c r="T8">
-        <v>0.01051637651486163</v>
+        <v>0.016265141250949</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.8143563333333333</v>
+        <v>1.399743666666667</v>
       </c>
       <c r="H9">
-        <v>2.443069</v>
+        <v>4.199231</v>
       </c>
       <c r="I9">
-        <v>0.1940774910548533</v>
+        <v>0.2598558798146963</v>
       </c>
       <c r="J9">
-        <v>0.1940774910548533</v>
+        <v>0.2598558798146962</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.2909853333333333</v>
+        <v>0.09534933333333333</v>
       </c>
       <c r="N9">
-        <v>0.872956</v>
+        <v>0.286048</v>
       </c>
       <c r="O9">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764605</v>
       </c>
       <c r="P9">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764604</v>
       </c>
       <c r="Q9">
-        <v>0.2369657491071111</v>
+        <v>0.1334646254542222</v>
       </c>
       <c r="R9">
-        <v>2.132691741964</v>
+        <v>1.201181629088</v>
       </c>
       <c r="S9">
-        <v>0.00635662115425085</v>
+        <v>0.003305319803491059</v>
       </c>
       <c r="T9">
-        <v>0.006356621154250851</v>
+        <v>0.003305319803491059</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.9802360000000001</v>
+        <v>1.585427</v>
       </c>
       <c r="H10">
-        <v>2.940708</v>
+        <v>4.756281</v>
       </c>
       <c r="I10">
-        <v>0.2336099514851752</v>
+        <v>0.294327124157</v>
       </c>
       <c r="J10">
-        <v>0.2336099514851752</v>
+        <v>0.294327124157</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.778439</v>
+        <v>2.598166333333333</v>
       </c>
       <c r="N10">
-        <v>11.335317</v>
+        <v>7.794499</v>
       </c>
       <c r="O10">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="P10">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="Q10">
-        <v>3.703761931604001</v>
+        <v>4.119203055357667</v>
       </c>
       <c r="R10">
-        <v>33.333857384436</v>
+        <v>37.072827498219</v>
       </c>
       <c r="S10">
-        <v>0.09935364723996927</v>
+        <v>0.1020141733222378</v>
       </c>
       <c r="T10">
-        <v>0.09935364723996928</v>
+        <v>0.1020141733222378</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.9802360000000001</v>
+        <v>1.585427</v>
       </c>
       <c r="H11">
-        <v>2.940708</v>
+        <v>4.756281</v>
       </c>
       <c r="I11">
-        <v>0.2336099514851752</v>
+        <v>0.294327124157</v>
       </c>
       <c r="J11">
-        <v>0.2336099514851752</v>
+        <v>0.294327124157</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.333403333333334</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N11">
         <v>13.00021</v>
       </c>
       <c r="O11">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="P11">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="Q11">
-        <v>4.247757949853335</v>
+        <v>6.870294646556665</v>
       </c>
       <c r="R11">
-        <v>38.22982154868001</v>
+        <v>61.83265181900999</v>
       </c>
       <c r="S11">
-        <v>0.1139463747141364</v>
+        <v>0.1701463655541541</v>
       </c>
       <c r="T11">
-        <v>0.1139463747141365</v>
+        <v>0.1701463655541541</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.9802360000000001</v>
+        <v>1.585427</v>
       </c>
       <c r="H12">
-        <v>2.940708</v>
+        <v>4.756281</v>
       </c>
       <c r="I12">
-        <v>0.2336099514851752</v>
+        <v>0.294327124157</v>
       </c>
       <c r="J12">
-        <v>0.2336099514851752</v>
+        <v>0.294327124157</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.4814053333333333</v>
+        <v>0.4692043333333333</v>
       </c>
       <c r="N12">
-        <v>1.444216</v>
+        <v>1.407613</v>
       </c>
       <c r="O12">
-        <v>0.0541864822020464</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="P12">
-        <v>0.05418648220204641</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="Q12">
-        <v>0.4718908383253334</v>
+        <v>0.7438892185836666</v>
       </c>
       <c r="R12">
-        <v>4.247017544928</v>
+        <v>6.695002967252999</v>
       </c>
       <c r="S12">
-        <v>0.01265850147837237</v>
+        <v>0.01842279748225448</v>
       </c>
       <c r="T12">
-        <v>0.01265850147837237</v>
+        <v>0.01842279748225448</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.9802360000000001</v>
+        <v>1.585427</v>
       </c>
       <c r="H13">
-        <v>2.940708</v>
+        <v>4.756281</v>
       </c>
       <c r="I13">
-        <v>0.2336099514851752</v>
+        <v>0.294327124157</v>
       </c>
       <c r="J13">
-        <v>0.2336099514851752</v>
+        <v>0.294327124157</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.2909853333333333</v>
+        <v>0.09534933333333333</v>
       </c>
       <c r="N13">
-        <v>0.872956</v>
+        <v>0.286048</v>
       </c>
       <c r="O13">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764605</v>
       </c>
       <c r="P13">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764604</v>
       </c>
       <c r="Q13">
-        <v>0.2852342992053333</v>
+        <v>0.1511694074986666</v>
       </c>
       <c r="R13">
-        <v>2.567108692848</v>
+        <v>1.360524667488</v>
       </c>
       <c r="S13">
-        <v>0.007651428052697124</v>
+        <v>0.003743787798353618</v>
       </c>
       <c r="T13">
-        <v>0.007651428052697124</v>
+        <v>0.003743787798353616</v>
       </c>
     </row>
   </sheetData>
